--- a/data/trans_dic/P04D$colectiva-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04549870317176424</v>
+        <v>0.04610129492518479</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05293238741021338</v>
+        <v>0.05452543375131311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09782573157654514</v>
+        <v>0.09895871510683903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03279676467518004</v>
+        <v>0.03355082685290926</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03721725162666562</v>
+        <v>0.03573406558075452</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1101996503734129</v>
+        <v>0.1119788134600649</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04440471633679603</v>
+        <v>0.04542259887458364</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05181798520280508</v>
+        <v>0.05229315202535214</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1118413129346034</v>
+        <v>0.1110197217014687</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09300356928874504</v>
+        <v>0.09345169461937353</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1082894220409196</v>
+        <v>0.1068840062657795</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1577527530856595</v>
+        <v>0.1575886854863484</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08337948906125738</v>
+        <v>0.08207133773516237</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08909904682655946</v>
+        <v>0.08735224700522241</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1637944736062655</v>
+        <v>0.1601453317849658</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07990559472506754</v>
+        <v>0.0787909304026406</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08849128946436437</v>
+        <v>0.09210874315121438</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1494533329026371</v>
+        <v>0.1498533667324468</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01470373911476932</v>
+        <v>0.01671708216340682</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02892421400207403</v>
+        <v>0.02754549335046417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0441366669841465</v>
+        <v>0.04269639028412232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01840804033759262</v>
+        <v>0.01982403411432087</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0214367536408691</v>
+        <v>0.02161489030956889</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04598384891061542</v>
+        <v>0.04552684805888531</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02140877169095899</v>
+        <v>0.02196177277976403</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0284464426181113</v>
+        <v>0.02876499908060503</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04905136223342092</v>
+        <v>0.04902844369769889</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05315642714285587</v>
+        <v>0.05373658806028186</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07297328428575642</v>
+        <v>0.0735045504495903</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08317124074948079</v>
+        <v>0.08339986581992018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05875324167104837</v>
+        <v>0.058657290036747</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06337521946459482</v>
+        <v>0.06335055450099475</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0867525155786027</v>
+        <v>0.0870887259252883</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04813591175000936</v>
+        <v>0.04890201543811876</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05851136241401059</v>
+        <v>0.05836844418272669</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07850114961773363</v>
+        <v>0.07879133089995767</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.02094865317109376</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06071448922178804</v>
+        <v>0.06071448922178805</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.03497504648160884</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0114287554648854</v>
+        <v>0.01084344554092604</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01133085961399256</v>
+        <v>0.01056535144752346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0417385210909834</v>
+        <v>0.04141673640327235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01638035313499825</v>
+        <v>0.01612756335635939</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005351467477017293</v>
+        <v>0.005277225391926689</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04217570620879297</v>
+        <v>0.04295670071697942</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01552490652658948</v>
+        <v>0.01548931003636712</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0116590318565254</v>
+        <v>0.01141394052364071</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04729222853667887</v>
+        <v>0.04750249922155064</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03410369278733782</v>
+        <v>0.03242395784775523</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03788418202200275</v>
+        <v>0.03558719931403045</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0855372410674993</v>
+        <v>0.08663486524370198</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0690922958328633</v>
+        <v>0.06882281561305503</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0451529241635879</v>
+        <v>0.04727484020826942</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1072192907759023</v>
+        <v>0.1058915645007127</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03717630359249299</v>
+        <v>0.03540680944815364</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03379629263916008</v>
+        <v>0.03200994949273125</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08366403873746546</v>
+        <v>0.08362285329989785</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01949573408022696</v>
+        <v>0.01886743149395033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005488369542349464</v>
+        <v>0.006100591824878245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02841526034892829</v>
+        <v>0.03068461883634797</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01330914983882046</v>
+        <v>0.01384818745110795</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.006961076502325542</v>
+        <v>0.006855265474738994</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04307522060709987</v>
+        <v>0.04311907238128577</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01917267008485781</v>
+        <v>0.01923999920328051</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007642532826708832</v>
+        <v>0.007871098629492855</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03908055220263155</v>
+        <v>0.03924541745344585</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04090854483052955</v>
+        <v>0.03909724279610931</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01756086788471541</v>
+        <v>0.0183712901681369</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05475164849562882</v>
+        <v>0.05644795978747083</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03753042071485251</v>
+        <v>0.03601213248276832</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02388562919746496</v>
+        <v>0.02246721233885488</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06823377133080789</v>
+        <v>0.06874053520628463</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0342241148239067</v>
+        <v>0.03419168152286042</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01700281729334153</v>
+        <v>0.01703521478721228</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05695199062222533</v>
+        <v>0.05758551080297545</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.01002310305913255</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02219416531674602</v>
+        <v>0.02219416531674601</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.01775341088887044</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008087363949518901</v>
+        <v>0.00805728253756224</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004060845343010239</v>
+        <v>0.004162060288689908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0130231868947943</v>
+        <v>0.01175785612262356</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009562054809693044</v>
+        <v>0.009648470876882153</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008777147346738652</v>
+        <v>0.008707264446429639</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02105097008742862</v>
+        <v>0.02096590346909051</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01164758815110394</v>
+        <v>0.01108206772008656</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008054462439488074</v>
+        <v>0.008618114833116617</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01970605040831226</v>
+        <v>0.01970096761598245</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03185019136072546</v>
+        <v>0.03212705424411844</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02152040557988164</v>
+        <v>0.02177234725212171</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03642938967929807</v>
+        <v>0.03655029526591001</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03115016310276846</v>
+        <v>0.03065054592762364</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02766725522644045</v>
+        <v>0.02910389101512964</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03948223049366092</v>
+        <v>0.03953211685007785</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02644339254668107</v>
+        <v>0.02702663441999591</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02136866386976352</v>
+        <v>0.02173732370978017</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03386443274719787</v>
+        <v>0.03391000198620689</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02095974177411467</v>
+        <v>0.02323709054435449</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03102054530451575</v>
+        <v>0.03243157823738953</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0306554424704542</v>
+        <v>0.03292952016501971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01606110695095354</v>
+        <v>0.01554813721574814</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01624753403408289</v>
+        <v>0.01584090045355516</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03744834883772266</v>
+        <v>0.03596596914022478</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01944715070546607</v>
+        <v>0.02001166189916626</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02214016816457249</v>
+        <v>0.0209344777115373</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04075534534776964</v>
+        <v>0.04067560943684627</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06918130878258573</v>
+        <v>0.07364905607135958</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08542463270456152</v>
+        <v>0.08441044798302923</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1149168861181763</v>
+        <v>0.1179687123826188</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03456965270223028</v>
+        <v>0.03435723311835067</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03676517471337898</v>
+        <v>0.03640760457991188</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06876618180208424</v>
+        <v>0.06695039744179564</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03795881617140956</v>
+        <v>0.0383420105357872</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04147035379197846</v>
+        <v>0.04135474865850464</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07149350156493625</v>
+        <v>0.07108817966620826</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.02806066822228879</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.05866611189581653</v>
+        <v>0.05866611189581652</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.02695373375697572</v>
@@ -1309,7 +1309,7 @@
         <v>0.02461584719927819</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.06044871849451496</v>
+        <v>0.06044871849451498</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.02917868908043306</v>
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02588436375598046</v>
+        <v>0.02582655081037999</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02278845380584964</v>
+        <v>0.02267527024455309</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05115960183529569</v>
+        <v>0.05079345229479276</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02204954407725956</v>
+        <v>0.02160201396834874</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01952758706409083</v>
+        <v>0.01947362267543717</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05386145534906715</v>
+        <v>0.05339111492832523</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02512761607498167</v>
+        <v>0.02551427334830061</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02281824645522483</v>
+        <v>0.02246431571149577</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05460539146586761</v>
+        <v>0.05423121142517563</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0378072955986541</v>
+        <v>0.03776316147065144</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03415932951373737</v>
+        <v>0.03403395433757036</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06767520872596089</v>
+        <v>0.06709338438241939</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03318186315857764</v>
+        <v>0.03324706057941273</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03045490579991753</v>
+        <v>0.03090307049212629</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06794936962418624</v>
+        <v>0.0676961908170884</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03331778864804204</v>
+        <v>0.03374744318099307</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03057193818441999</v>
+        <v>0.03058226646931766</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06534176913482798</v>
+        <v>0.06524689258365558</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19893</v>
+        <v>20156</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22713</v>
+        <v>23396</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>53752</v>
+        <v>54374</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10313</v>
+        <v>10550</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12916</v>
+        <v>12402</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>53665</v>
+        <v>54531</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33377</v>
+        <v>34143</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40218</v>
+        <v>40587</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>115917</v>
+        <v>115066</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40662</v>
+        <v>40858</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46466</v>
+        <v>45863</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>86679</v>
+        <v>86589</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26219</v>
+        <v>25808</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30922</v>
+        <v>30316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>79764</v>
+        <v>77987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>60062</v>
+        <v>59224</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>68682</v>
+        <v>71490</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>154900</v>
+        <v>155314</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6123</v>
+        <v>6961</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10911</v>
+        <v>10391</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21327</v>
+        <v>20631</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6222</v>
+        <v>6701</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7980</v>
+        <v>8047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>19458</v>
+        <v>19264</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16151</v>
+        <v>16568</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21321</v>
+        <v>21559</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>44458</v>
+        <v>44437</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22134</v>
+        <v>22376</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27527</v>
+        <v>27728</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40189</v>
+        <v>40300</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19859</v>
+        <v>19827</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23593</v>
+        <v>23584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36709</v>
+        <v>36851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36314</v>
+        <v>36892</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43854</v>
+        <v>43747</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>71150</v>
+        <v>71413</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7193</v>
+        <v>6825</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5914</v>
+        <v>5514</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19645</v>
+        <v>19494</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4261</v>
+        <v>4195</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7836</v>
+        <v>7981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13810</v>
+        <v>13778</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8022</v>
+        <v>7853</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31045</v>
+        <v>31183</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21465</v>
+        <v>20408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19772</v>
+        <v>18573</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40260</v>
+        <v>40776</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17973</v>
+        <v>17903</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7501</v>
+        <v>7853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19920</v>
+        <v>19673</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33070</v>
+        <v>31496</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23253</v>
+        <v>22024</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54922</v>
+        <v>54895</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22559</v>
+        <v>21832</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6310</v>
+        <v>7013</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31979</v>
+        <v>34533</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10190</v>
+        <v>10603</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5749</v>
+        <v>5662</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36999</v>
+        <v>37037</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>36865</v>
+        <v>36994</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15098</v>
+        <v>15549</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>77550</v>
+        <v>77877</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47336</v>
+        <v>45240</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20189</v>
+        <v>21120</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61619</v>
+        <v>63528</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28736</v>
+        <v>27573</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19727</v>
+        <v>18555</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>58609</v>
+        <v>59044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>65805</v>
+        <v>65743</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>33589</v>
+        <v>33653</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>113013</v>
+        <v>114270</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4114</v>
+        <v>4098</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2521</v>
+        <v>2583</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7383</v>
+        <v>6665</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7271</v>
+        <v>7337</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6480</v>
+        <v>6428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>17447</v>
+        <v>17376</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14782</v>
+        <v>14064</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10946</v>
+        <v>11712</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27503</v>
+        <v>27496</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16201</v>
+        <v>16342</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13358</v>
+        <v>13514</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20651</v>
+        <v>20720</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>23686</v>
+        <v>23307</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>20425</v>
+        <v>21486</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>32722</v>
+        <v>32764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>33558</v>
+        <v>34299</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29039</v>
+        <v>29540</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>47263</v>
+        <v>47327</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5576</v>
+        <v>6181</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8907</v>
+        <v>9313</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7272</v>
+        <v>7812</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17784</v>
+        <v>17216</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>17580</v>
+        <v>17140</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>31548</v>
+        <v>30299</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>26706</v>
+        <v>27482</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>30314</v>
+        <v>28663</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>44003</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18403</v>
+        <v>19592</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24529</v>
+        <v>24238</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>27262</v>
+        <v>27985</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>38278</v>
+        <v>38042</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>39781</v>
+        <v>39394</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>57932</v>
+        <v>56402</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>52128</v>
+        <v>52654</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>56780</v>
+        <v>56622</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>77190</v>
+        <v>76752</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>88390</v>
+        <v>88193</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>77155</v>
+        <v>76772</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>175624</v>
+        <v>174367</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>78186</v>
+        <v>76599</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>68964</v>
+        <v>68773</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>195306</v>
+        <v>193601</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>174907</v>
+        <v>177598</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>157841</v>
+        <v>155393</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>385457</v>
+        <v>382816</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>129105</v>
+        <v>128954</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>115654</v>
+        <v>115230</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>232320</v>
+        <v>230323</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>117660</v>
+        <v>117891</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>107554</v>
+        <v>109137</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>246390</v>
+        <v>245472</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>231916</v>
+        <v>234907</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>211476</v>
+        <v>211547</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>461245</v>
+        <v>460575</v>
       </c>
     </row>
     <row r="32">
